--- a/src/playerLevelUp.xlsx
+++ b/src/playerLevelUp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8F06E8-D13B-4FDC-A086-9DB245AE2CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,20 +456,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -610,7 +611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -681,7 +682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -701,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -721,12 +722,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -735,12 +736,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -749,12 +750,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -763,12 +764,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -777,12 +778,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>700</v>
+        <v>10000</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -797,12 +798,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -817,12 +818,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -831,12 +832,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -845,12 +846,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>1100</v>
+        <v>20000</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -859,12 +860,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>1200</v>
+        <v>20000</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -873,12 +874,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>1300</v>
+        <v>20000</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -893,12 +894,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1400</v>
+        <v>20000</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -913,12 +914,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>1500</v>
+        <v>20000</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -927,12 +928,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>1600</v>
+        <v>40000</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -941,12 +942,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20">
-        <v>1700</v>
+        <v>40000</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -955,12 +956,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21">
-        <v>1800</v>
+        <v>40000</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -969,12 +970,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22">
-        <v>1900</v>
+        <v>40000</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -989,12 +990,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1009,12 +1010,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24">
-        <v>2100</v>
+        <v>60000</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1023,12 +1024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25">
-        <v>2200</v>
+        <v>60000</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1037,12 +1038,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26">
-        <v>2300</v>
+        <v>60000</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1051,12 +1052,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27">
-        <v>2400</v>
+        <v>60000</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -1065,12 +1066,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28">
-        <v>2500</v>
+        <v>60000</v>
       </c>
       <c r="C28">
         <v>50</v>
@@ -1085,12 +1086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29">
-        <v>2600</v>
+        <v>80000</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -1105,12 +1106,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30">
-        <v>2700</v>
+        <v>80000</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -1119,12 +1120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31">
-        <v>2800</v>
+        <v>80000</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1133,12 +1134,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32">
-        <v>2900</v>
+        <v>80000</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -1147,12 +1148,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33">
-        <v>3000</v>
+        <v>80000</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -1161,12 +1162,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34">
-        <v>3100</v>
+        <v>100000</v>
       </c>
       <c r="C34">
         <v>60</v>
@@ -1181,12 +1182,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35">
-        <v>3200</v>
+        <v>200000</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -1201,12 +1202,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36">
-        <v>3300</v>
+        <v>300000</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -1215,12 +1216,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37">
-        <v>3400</v>
+        <v>400000</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1229,12 +1230,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38">
-        <v>3500</v>
+        <v>500000</v>
       </c>
       <c r="C38">
         <v>100</v>
@@ -1243,12 +1244,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39">
-        <v>3600</v>
+        <v>600000</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -1257,516 +1258,516 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56">
-        <v>5300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65">
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="B67">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="B68">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
       <c r="B69">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
       <c r="B70">
-        <v>6700</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3700000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
       <c r="B71">
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
       <c r="B72">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3900000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
       <c r="B73">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
       <c r="B74">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4100000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
       <c r="B75">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
       <c r="B76">
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
       <c r="B77">
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
       <c r="B78">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
       <c r="B79">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
       <c r="B80">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
       <c r="B81">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
       <c r="B82">
-        <v>7900</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
       <c r="B83">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
       <c r="B84">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5100000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
       <c r="B85">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5200000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
       <c r="B86">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5300000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
       <c r="B87">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5400000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
       <c r="B88">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
       <c r="B89">
-        <v>8600</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
       <c r="B90">
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>88</v>
       </c>
       <c r="B91">
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
       <c r="B92">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5900000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
       <c r="B93">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>91</v>
       </c>
       <c r="B94">
-        <v>9100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>92</v>
       </c>
       <c r="B95">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6200000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93</v>
       </c>
       <c r="B96">
-        <v>9300</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>94</v>
       </c>
       <c r="B97">
-        <v>9400</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>95</v>
       </c>
       <c r="B98">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>96</v>
       </c>
       <c r="B99">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6600000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>97</v>
       </c>
       <c r="B100">
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6700000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>98</v>
       </c>
       <c r="B101">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>99</v>
       </c>
       <c r="B102">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6900000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>100</v>
       </c>
       <c r="B103">
-        <v>10000</v>
+        <v>7000000</v>
       </c>
     </row>
   </sheetData>

--- a/src/playerLevelUp.xlsx
+++ b/src/playerLevelUp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8F06E8-D13B-4FDC-A086-9DB245AE2CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -134,13 +133,28 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>暴击加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit11</t>
+  </si>
+  <si>
+    <t>attr12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +164,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -178,8 +200,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,20 +481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,47 +525,56 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P1" t="s">
         <v>3</v>
       </c>
       <c r="Q1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T1" t="s">
         <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V1" t="s">
         <v>3</v>
       </c>
       <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -610,8 +644,17 @@
       <c r="W2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -681,8 +724,17 @@
       <c r="W3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -690,19 +742,25 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -710,47 +768,77 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="G5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
         <v>400</v>
       </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="G6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>600</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>160</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -758,13 +846,25 @@
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -772,13 +872,25 @@
         <v>10000</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -786,19 +898,25 @@
         <v>10000</v>
       </c>
       <c r="C10">
+        <v>220</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>20</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -806,47 +924,77 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="G11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
         <v>10000</v>
       </c>
+      <c r="C12">
+        <v>260</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="G12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
         <v>10000</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>280</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -854,13 +1002,25 @@
         <v>20000</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -868,13 +1028,25 @@
         <v>20000</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -882,19 +1054,25 @@
         <v>20000</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -902,47 +1080,77 @@
         <v>20000</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
       <c r="G17">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18">
         <v>20000</v>
       </c>
+      <c r="C18">
+        <v>380</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
       <c r="G18">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19">
         <v>40000</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -950,13 +1158,25 @@
         <v>40000</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -964,13 +1184,25 @@
         <v>40000</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -978,19 +1210,25 @@
         <v>40000</v>
       </c>
       <c r="C22">
+        <v>460</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>40</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -998,47 +1236,77 @@
         <v>40000</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="G23">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24">
         <v>60000</v>
       </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
       <c r="G24">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25">
         <v>60000</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>520</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1046,13 +1314,25 @@
         <v>60000</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>540</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1060,13 +1340,25 @@
         <v>60000</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>560</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>60</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1074,19 +1366,25 @@
         <v>60000</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1094,47 +1392,77 @@
         <v>80000</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29">
+        <v>90</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
       <c r="G29">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30">
         <v>80000</v>
       </c>
+      <c r="C30">
+        <v>620</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="G30">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31">
         <v>80000</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>640</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>110</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1142,13 +1470,25 @@
         <v>80000</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>660</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>120</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>60</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1156,13 +1496,25 @@
         <v>80000</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>680</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>130</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>60</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1170,19 +1522,25 @@
         <v>100000</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>700</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1190,47 +1548,77 @@
         <v>200000</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>720</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
+      <c r="E35">
+        <v>150</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
       <c r="G35">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36">
         <v>300000</v>
       </c>
+      <c r="C36">
+        <v>740</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>160</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
       <c r="G36">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37">
         <v>400000</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>760</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>170</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1238,13 +1626,25 @@
         <v>500000</v>
       </c>
       <c r="C38">
-        <v>100</v>
+        <v>780</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>180</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1252,522 +1652,1686 @@
         <v>600000</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>190</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40">
         <v>700000</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>820</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>200</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41">
         <v>800000</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>840</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>210</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42">
         <v>900000</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>860</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>220</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>880</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>230</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44">
         <v>1100000</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>900</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>240</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45">
         <v>1200000</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>920</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>250</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46">
         <v>1300000</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>940</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>260</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47">
         <v>1400000</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>960</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>270</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>980</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>280</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49">
         <v>1600000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>1000</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>290</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50">
         <v>1700000</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>1020</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>300</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51">
         <v>1800000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>1040</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>310</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52">
         <v>1900000</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>1060</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>320</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>1080</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>330</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54">
         <v>2100000</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>1100</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>340</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55">
         <v>2200000</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>1120</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>350</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56">
         <v>2300000</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>1140</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>360</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57">
         <v>2400000</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>1160</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>370</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>1180</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>380</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59">
         <v>2600000</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>1200</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>390</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60">
         <v>2700000</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>1220</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>400</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61">
         <v>2800000</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>1240</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>410</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62">
         <v>2900000</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>1260</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>420</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>1280</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>430</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64">
         <v>3100000</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>1300</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>440</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65">
         <v>3200000</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>1320</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>450</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66">
         <v>3300000</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>1340</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>460</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="B67">
         <v>3400000</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>1360</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>470</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="B68">
         <v>3500000</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>1380</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>480</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
       <c r="B69">
         <v>3600000</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>1400</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>490</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
       <c r="B70">
         <v>3700000</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>1420</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>500</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
       <c r="B71">
         <v>3800000</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>1440</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>510</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
       <c r="B72">
         <v>3900000</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>1460</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>520</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
       <c r="B73">
         <v>4000000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>1480</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>530</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
       <c r="B74">
         <v>4100000</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>1500</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>540</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
       <c r="B75">
         <v>4200000</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>1520</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>550</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
       <c r="B76">
         <v>4300000</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>1540</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>560</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
       <c r="B77">
         <v>4400000</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>1560</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>570</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
       <c r="B78">
         <v>4500000</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>1580</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>580</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
       <c r="B79">
         <v>4600000</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>1600</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>590</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
       <c r="B80">
         <v>4700000</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>1620</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>600</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
       <c r="B81">
         <v>4800000</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>1640</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>610</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
       <c r="B82">
         <v>4900000</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>1660</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>620</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
       <c r="B83">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>1680</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>630</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
       <c r="B84">
         <v>5100000</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>1700</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>640</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
       <c r="B85">
         <v>5200000</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>1720</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>650</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
       <c r="B86">
         <v>5300000</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>1740</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>660</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
       <c r="B87">
         <v>5400000</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>1760</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>670</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
       <c r="B88">
         <v>5500000</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>1780</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>680</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
       <c r="B89">
         <v>5600000</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>1800</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>690</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
       <c r="B90">
         <v>5700000</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>1820</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>700</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
       <c r="B91">
         <v>5800000</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>1840</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>710</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
       <c r="B92">
         <v>5900000</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>1860</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>720</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
       <c r="B93">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>1880</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>730</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>91</v>
       </c>
       <c r="B94">
         <v>6100000</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>1900</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>740</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
       <c r="B95">
         <v>6200000</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>1920</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>750</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>93</v>
       </c>
       <c r="B96">
         <v>6300000</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>1940</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>760</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>94</v>
       </c>
       <c r="B97">
         <v>6400000</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>1960</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>770</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
       <c r="B98">
         <v>6500000</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>1980</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>780</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
       <c r="B99">
         <v>6600000</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>2000</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>790</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
       <c r="B100">
         <v>6700000</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>2020</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>800</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>98</v>
       </c>
       <c r="B101">
         <v>6800000</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>2040</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>810</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
       <c r="B102">
         <v>6900000</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>2060</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>820</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100</v>
       </c>
       <c r="B103">
         <v>7000000</v>
+      </c>
+      <c r="C103">
+        <v>2080</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>830</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>100</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1778,19 +3342,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1798,56 +3353,65 @@
 </settings>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/src/playerLevelUp.xlsx
+++ b/src/playerLevelUp.xlsx
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -2392,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -2756,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -3342,15 +3342,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3360,17 +3362,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3381,13 +3381,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3399,13 +3399,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/playerLevelUp.xlsx
+++ b/src/playerLevelUp.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:Z203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>25</v>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3">
         <v>50</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C7" s="3">
         <v>100</v>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="C8" s="3">
         <v>125</v>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="C9" s="3">
         <v>150</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="C10" s="3">
         <v>175</v>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -997,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>550</v>
+        <v>4100</v>
       </c>
       <c r="C11" s="3">
         <v>200</v>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="C12" s="3">
         <v>225</v>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>650</v>
+        <v>6100</v>
       </c>
       <c r="C13" s="3">
         <v>250</v>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>1700</v>
+        <v>12100</v>
       </c>
       <c r="C14" s="3">
         <v>275</v>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>1750</v>
+        <v>16200</v>
       </c>
       <c r="C15" s="3">
         <v>300</v>
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>1800</v>
+        <v>20300</v>
       </c>
       <c r="C16" s="3">
         <v>325</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>2050</v>
+        <v>24400</v>
       </c>
       <c r="C17" s="3">
         <v>350</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>2500</v>
+        <v>30100</v>
       </c>
       <c r="C18" s="3">
         <v>375</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>3200</v>
+        <v>36600</v>
       </c>
       <c r="C19" s="3">
         <v>400</v>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>4150</v>
+        <v>42700</v>
       </c>
       <c r="C20" s="3">
         <v>425</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>4200</v>
+        <v>50900</v>
       </c>
       <c r="C21" s="3">
         <v>450</v>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>4250</v>
+        <v>59100</v>
       </c>
       <c r="C22" s="3">
         <v>475</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>4300</v>
+        <v>67300</v>
       </c>
       <c r="C23" s="3">
         <v>500</v>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F23" s="5">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2">
-        <v>4800</v>
+        <v>77600</v>
       </c>
       <c r="C24" s="3">
         <v>525</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F24" s="5">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>5300</v>
+        <v>87900</v>
       </c>
       <c r="C25" s="3">
         <v>550</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2">
-        <v>6300</v>
+        <v>98200</v>
       </c>
       <c r="C26" s="3">
         <v>575</v>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>7800</v>
+        <v>108500</v>
       </c>
       <c r="C27" s="3">
         <v>600</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -1541,7 +1541,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2">
-        <v>9800</v>
+        <v>120000</v>
       </c>
       <c r="C28" s="3">
         <v>625</v>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2">
-        <v>11100</v>
+        <v>126100</v>
       </c>
       <c r="C29" s="3">
         <v>650</v>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
@@ -1605,7 +1605,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>13550</v>
+        <v>135500</v>
       </c>
       <c r="C30" s="3">
         <v>675</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>16000</v>
+        <v>160600</v>
       </c>
       <c r="C31" s="3">
         <v>700</v>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
@@ -1669,7 +1669,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="2">
-        <v>18450</v>
+        <v>184700</v>
       </c>
       <c r="C32" s="3">
         <v>725</v>
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="2">
-        <v>20900</v>
+        <v>209800</v>
       </c>
       <c r="C33" s="3">
         <v>750</v>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="2">
-        <v>25800</v>
+        <v>258900</v>
       </c>
       <c r="C34" s="3">
         <v>775</v>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="F34" s="5">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="2">
-        <v>30700</v>
+        <v>307000</v>
       </c>
       <c r="C35" s="3">
         <v>800</v>
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="F35" s="5">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="2">
-        <v>35600</v>
+        <v>356100</v>
       </c>
       <c r="C36" s="3">
         <v>825</v>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
@@ -1829,7 +1829,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="2">
-        <v>40500</v>
+        <v>405200</v>
       </c>
       <c r="C37" s="3">
         <v>850</v>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -1861,7 +1861,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="2">
-        <v>45400</v>
+        <v>454300</v>
       </c>
       <c r="C38" s="3">
         <v>875</v>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2">
-        <v>50300</v>
+        <v>503400</v>
       </c>
       <c r="C39" s="3">
         <v>900</v>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="2">
-        <v>55200</v>
+        <v>552500</v>
       </c>
       <c r="C40" s="3">
         <v>925</v>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="2">
-        <v>60100</v>
+        <v>601500</v>
       </c>
       <c r="C41" s="3">
         <v>950</v>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="2">
-        <v>65000</v>
+        <v>650700</v>
       </c>
       <c r="C42" s="3">
         <v>975</v>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
@@ -2021,7 +2021,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="2">
-        <v>69900</v>
+        <v>699800</v>
       </c>
       <c r="C43" s="3">
         <v>1000</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="2">
-        <v>74800</v>
+        <v>748900</v>
       </c>
       <c r="C44" s="3">
         <v>1025</v>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2">
-        <v>79700</v>
+        <v>797000</v>
       </c>
       <c r="C45" s="3">
         <v>1050</v>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="2">
-        <v>84600</v>
+        <v>846100</v>
       </c>
       <c r="C46" s="3">
         <v>1075</v>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="F46" s="5">
         <v>1</v>
@@ -2149,7 +2149,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="2">
-        <v>89600</v>
+        <v>896200</v>
       </c>
       <c r="C47" s="3">
         <v>1100</v>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
@@ -2181,7 +2181,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="2">
-        <v>94400</v>
+        <v>944300</v>
       </c>
       <c r="C48" s="3">
         <v>1125</v>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="F48" s="5">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="2">
-        <v>99400</v>
+        <v>994400</v>
       </c>
       <c r="C49" s="3">
         <v>1150</v>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="2">
-        <v>104200</v>
+        <v>1042500</v>
       </c>
       <c r="C50" s="3">
         <v>1175</v>
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="2">
-        <v>109200</v>
+        <v>1092600</v>
       </c>
       <c r="C51" s="3">
         <v>1200</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="F51" s="5">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="2">
-        <v>114000</v>
+        <v>1140700</v>
       </c>
       <c r="C52" s="3">
         <v>1225</v>
@@ -2318,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="F52" s="5">
         <v>1</v>
@@ -2341,7 +2341,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="4">
-        <v>133400</v>
+        <v>1334800</v>
       </c>
       <c r="C53" s="3">
         <v>1250</v>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="F53" s="5">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="4">
-        <v>144000</v>
+        <v>1440900</v>
       </c>
       <c r="C54" s="3">
         <v>1275</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="1">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="F54" s="5">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4">
-        <v>154600</v>
+        <v>1546000</v>
       </c>
       <c r="C55" s="3">
         <v>1300</v>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="F55" s="5">
         <v>1</v>
@@ -2437,7 +2437,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4">
-        <v>165200</v>
+        <v>1652100</v>
       </c>
       <c r="C56" s="3">
         <v>1325</v>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="F56" s="5">
         <v>1</v>
@@ -2469,7 +2469,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="4">
-        <v>175800</v>
+        <v>1758200</v>
       </c>
       <c r="C57" s="3">
         <v>1350</v>
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
@@ -2501,7 +2501,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="4">
-        <v>186200</v>
+        <v>1862300</v>
       </c>
       <c r="C58" s="3">
         <v>1375</v>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="F58" s="5">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4">
-        <v>196800</v>
+        <v>1968400</v>
       </c>
       <c r="C59" s="3">
         <v>1400</v>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="F59" s="5">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="4">
-        <v>207400</v>
+        <v>2074500</v>
       </c>
       <c r="C60" s="3">
         <v>1425</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="F60" s="5">
         <v>1</v>
@@ -2597,7 +2597,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4">
-        <v>218000</v>
+        <v>2180600</v>
       </c>
       <c r="C61" s="3">
         <v>1450</v>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="F61" s="5">
         <v>1</v>
@@ -2629,7 +2629,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="4">
-        <v>228600</v>
+        <v>2286700</v>
       </c>
       <c r="C62" s="3">
         <v>1475</v>
@@ -2638,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
@@ -2661,7 +2661,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="4">
-        <v>255000</v>
+        <v>2550800</v>
       </c>
       <c r="C63" s="3">
         <v>1500</v>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="4">
-        <v>281400</v>
+        <v>2814900</v>
       </c>
       <c r="C64" s="3">
         <v>1510</v>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="F64" s="5">
         <v>1</v>
@@ -2725,7 +2725,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="4">
-        <v>307800</v>
+        <v>3078000</v>
       </c>
       <c r="C65" s="3">
         <v>1520</v>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="F65" s="5">
         <v>1</v>
@@ -2757,7 +2757,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="4">
-        <v>334200</v>
+        <v>3342100</v>
       </c>
       <c r="C66" s="3">
         <v>1530</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F66" s="5">
         <v>1</v>
@@ -2789,7 +2789,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="4">
-        <v>360600</v>
+        <v>3606200</v>
       </c>
       <c r="C67" s="3">
         <v>1540</v>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F67" s="5">
         <v>1</v>
@@ -2821,7 +2821,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="4">
-        <v>387000</v>
+        <v>3870300</v>
       </c>
       <c r="C68" s="3">
         <v>1550</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F68" s="5">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="4">
-        <v>439800</v>
+        <v>4398400</v>
       </c>
       <c r="C69" s="3">
         <v>1560</v>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F69" s="5">
         <v>1</v>
@@ -2885,7 +2885,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="4">
-        <v>492600</v>
+        <v>4926500</v>
       </c>
       <c r="C70" s="3">
         <v>1570</v>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="F70" s="5">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="4">
-        <v>545400</v>
+        <v>5454600</v>
       </c>
       <c r="C71" s="3">
         <v>1580</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="F71" s="5">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="4">
-        <v>598200</v>
+        <v>5982700</v>
       </c>
       <c r="C72" s="3">
         <v>1590</v>
@@ -2958,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="F72" s="5">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="4">
-        <v>604000</v>
+        <v>6040800</v>
       </c>
       <c r="C73" s="3">
         <v>1600</v>
@@ -2990,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="F73" s="5">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="4">
-        <v>618000</v>
+        <v>6180900</v>
       </c>
       <c r="C74" s="3">
         <v>1610</v>
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="F74" s="5">
         <v>1</v>
@@ -3045,7 +3045,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="4">
-        <v>632000</v>
+        <v>6320000</v>
       </c>
       <c r="C75" s="3">
         <v>1620</v>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="F75" s="5">
         <v>1</v>
@@ -3077,7 +3077,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="4">
-        <v>646000</v>
+        <v>6460100</v>
       </c>
       <c r="C76" s="3">
         <v>1630</v>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="F76" s="5">
         <v>1</v>
@@ -3109,7 +3109,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="4">
-        <v>660000</v>
+        <v>6600200</v>
       </c>
       <c r="C77" s="3">
         <v>1640</v>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>328</v>
+        <v>388</v>
       </c>
       <c r="F77" s="5">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4">
-        <v>674000</v>
+        <v>6740300</v>
       </c>
       <c r="C78" s="3">
         <v>1650</v>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="F78" s="5">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="4">
-        <v>688000</v>
+        <v>6880400</v>
       </c>
       <c r="C79" s="3">
         <v>1660</v>
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="F79" s="5">
         <v>1</v>
@@ -3205,7 +3205,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="4">
-        <v>702000</v>
+        <v>7020500</v>
       </c>
       <c r="C80" s="3">
         <v>1670</v>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <v>334</v>
+        <v>415</v>
       </c>
       <c r="F80" s="5">
         <v>1</v>
@@ -3237,7 +3237,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="4">
-        <v>716000</v>
+        <v>7160600</v>
       </c>
       <c r="C81" s="3">
         <v>1680</v>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="1">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="F81" s="5">
         <v>1</v>
@@ -3269,7 +3269,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="4">
-        <v>730000</v>
+        <v>7300700</v>
       </c>
       <c r="C82" s="3">
         <v>1690</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="F82" s="5">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="4">
-        <v>744000</v>
+        <v>7440800</v>
       </c>
       <c r="C83" s="3">
         <v>1700</v>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="1">
-        <v>340</v>
+        <v>442</v>
       </c>
       <c r="F83" s="5">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="4">
-        <v>758000</v>
+        <v>7580900</v>
       </c>
       <c r="C84" s="3">
         <v>1710</v>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="1">
-        <v>342</v>
+        <v>452</v>
       </c>
       <c r="F84" s="5">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="4">
-        <v>772000</v>
+        <v>7720000</v>
       </c>
       <c r="C85" s="3">
         <v>1720</v>
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>344</v>
+        <v>462</v>
       </c>
       <c r="F85" s="5">
         <v>1</v>
@@ -3397,7 +3397,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="4">
-        <v>786000</v>
+        <v>7860100</v>
       </c>
       <c r="C86" s="3">
         <v>1730</v>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="1">
-        <v>346</v>
+        <v>472</v>
       </c>
       <c r="F86" s="5">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="4">
-        <v>800000</v>
+        <v>8000200</v>
       </c>
       <c r="C87" s="3">
         <v>1740</v>
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="1">
-        <v>348</v>
+        <v>482</v>
       </c>
       <c r="F87" s="5">
         <v>1</v>
@@ -3461,7 +3461,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="4">
-        <v>814000</v>
+        <v>8140300</v>
       </c>
       <c r="C88" s="3">
         <v>1750</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="1">
-        <v>350</v>
+        <v>492</v>
       </c>
       <c r="F88" s="5">
         <v>1</v>
@@ -3493,7 +3493,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="4">
-        <v>828000</v>
+        <v>8280400</v>
       </c>
       <c r="C89" s="3">
         <v>1760</v>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="1">
-        <v>352</v>
+        <v>502</v>
       </c>
       <c r="F89" s="5">
         <v>1</v>
@@ -3525,7 +3525,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="4">
-        <v>842000</v>
+        <v>8420500</v>
       </c>
       <c r="C90" s="3">
         <v>1770</v>
@@ -3534,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <v>354</v>
+        <v>512</v>
       </c>
       <c r="F90" s="5">
         <v>1</v>
@@ -3557,7 +3557,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="4">
-        <v>856000</v>
+        <v>8560600</v>
       </c>
       <c r="C91" s="3">
         <v>1780</v>
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="1">
-        <v>356</v>
+        <v>522</v>
       </c>
       <c r="F91" s="5">
         <v>1</v>
@@ -3589,7 +3589,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="4">
-        <v>870000</v>
+        <v>8700700</v>
       </c>
       <c r="C92" s="3">
         <v>1790</v>
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>358</v>
+        <v>532</v>
       </c>
       <c r="F92" s="5">
         <v>1</v>
@@ -3621,7 +3621,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="4">
-        <v>884000</v>
+        <v>8840800</v>
       </c>
       <c r="C93" s="3">
         <v>1800</v>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>360</v>
+        <v>542</v>
       </c>
       <c r="F93" s="5">
         <v>1</v>
@@ -3653,7 +3653,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="4">
-        <v>898000</v>
+        <v>8980900</v>
       </c>
       <c r="C94" s="3">
         <v>1810</v>
@@ -3662,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>362</v>
+        <v>553</v>
       </c>
       <c r="F94" s="5">
         <v>1</v>
@@ -3685,7 +3685,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="4">
-        <v>912000</v>
+        <v>9120000</v>
       </c>
       <c r="C95" s="3">
         <v>1820</v>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="1">
-        <v>364</v>
+        <v>564</v>
       </c>
       <c r="F95" s="5">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="4">
-        <v>926000</v>
+        <v>9260100</v>
       </c>
       <c r="C96" s="3">
         <v>1830</v>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>366</v>
+        <v>575</v>
       </c>
       <c r="F96" s="5">
         <v>1</v>
@@ -3749,7 +3749,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="4">
-        <v>940000</v>
+        <v>9400200</v>
       </c>
       <c r="C97" s="3">
         <v>1840</v>
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>368</v>
+        <v>586</v>
       </c>
       <c r="F97" s="5">
         <v>1</v>
@@ -3781,7 +3781,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="4">
-        <v>954000</v>
+        <v>9540300</v>
       </c>
       <c r="C98" s="3">
         <v>1850</v>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>370</v>
+        <v>597</v>
       </c>
       <c r="F98" s="5">
         <v>1</v>
@@ -3813,7 +3813,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="4">
-        <v>968000</v>
+        <v>9680400</v>
       </c>
       <c r="C99" s="3">
         <v>1860</v>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="1">
-        <v>372</v>
+        <v>608</v>
       </c>
       <c r="F99" s="5">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="4">
-        <v>982000</v>
+        <v>9820500</v>
       </c>
       <c r="C100" s="3">
         <v>1870</v>
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="1">
-        <v>374</v>
+        <v>619</v>
       </c>
       <c r="F100" s="5">
         <v>1</v>
@@ -3877,7 +3877,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="4">
-        <v>996000</v>
+        <v>9960600</v>
       </c>
       <c r="C101" s="3">
         <v>1880</v>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>376</v>
+        <v>630</v>
       </c>
       <c r="F101" s="5">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4">
-        <v>1010000</v>
+        <v>10100700</v>
       </c>
       <c r="C102" s="3">
         <v>1890</v>
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="1">
-        <v>378</v>
+        <v>641</v>
       </c>
       <c r="F102" s="5">
         <v>1</v>
@@ -3941,7 +3941,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="4">
-        <v>1024000</v>
+        <v>10240800</v>
       </c>
       <c r="C103" s="3">
         <v>1900</v>
@@ -3950,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="1">
-        <v>380</v>
+        <v>652</v>
       </c>
       <c r="F103" s="5">
         <v>1</v>
@@ -3973,7 +3973,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="4">
-        <v>1038000</v>
+        <v>10380900</v>
       </c>
       <c r="C104" s="3">
         <v>1910</v>
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="1">
-        <v>382</v>
+        <v>657</v>
       </c>
       <c r="F104" s="5">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="4">
-        <v>1052000</v>
+        <v>10520000</v>
       </c>
       <c r="C105" s="3">
         <v>1920</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="1">
-        <v>384</v>
+        <v>662</v>
       </c>
       <c r="F105" s="5">
         <v>1</v>
@@ -4037,7 +4037,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="4">
-        <v>1066000</v>
+        <v>10660100</v>
       </c>
       <c r="C106" s="3">
         <v>1930</v>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>386</v>
+        <v>667</v>
       </c>
       <c r="F106" s="5">
         <v>1</v>
@@ -4069,7 +4069,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="4">
-        <v>1080000</v>
+        <v>10800200</v>
       </c>
       <c r="C107" s="3">
         <v>1940</v>
@@ -4078,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="1">
-        <v>388</v>
+        <v>672</v>
       </c>
       <c r="F107" s="5">
         <v>1</v>
@@ -4101,7 +4101,7 @@
         <v>105</v>
       </c>
       <c r="B108" s="4">
-        <v>1094000</v>
+        <v>10940300</v>
       </c>
       <c r="C108" s="3">
         <v>1950</v>
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="1">
-        <v>390</v>
+        <v>677</v>
       </c>
       <c r="F108" s="5">
         <v>1</v>
@@ -4133,7 +4133,7 @@
         <v>106</v>
       </c>
       <c r="B109" s="4">
-        <v>1108000</v>
+        <v>11080400</v>
       </c>
       <c r="C109" s="3">
         <v>1960</v>
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="1">
-        <v>392</v>
+        <v>682</v>
       </c>
       <c r="F109" s="5">
         <v>1</v>
@@ -4165,7 +4165,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="4">
-        <v>1122000</v>
+        <v>11220500</v>
       </c>
       <c r="C110" s="3">
         <v>1970</v>
@@ -4174,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="1">
-        <v>394</v>
+        <v>687</v>
       </c>
       <c r="F110" s="5">
         <v>1</v>
@@ -4197,7 +4197,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="4">
-        <v>1136000</v>
+        <v>11360600</v>
       </c>
       <c r="C111" s="3">
         <v>1980</v>
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="1">
-        <v>396</v>
+        <v>692</v>
       </c>
       <c r="F111" s="5">
         <v>1</v>
@@ -4229,7 +4229,7 @@
         <v>109</v>
       </c>
       <c r="B112" s="4">
-        <v>1150000</v>
+        <v>11500700</v>
       </c>
       <c r="C112" s="3">
         <v>1990</v>
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="1">
-        <v>398</v>
+        <v>697</v>
       </c>
       <c r="F112" s="5">
         <v>1</v>
@@ -4261,7 +4261,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="4">
-        <v>1164000</v>
+        <v>11640800</v>
       </c>
       <c r="C113" s="3">
         <v>2000</v>
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="1">
-        <v>400</v>
+        <v>702</v>
       </c>
       <c r="F113" s="5">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="4">
-        <v>1178000</v>
+        <v>11780900</v>
       </c>
       <c r="C114" s="3">
         <v>2010</v>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="1">
-        <v>402</v>
+        <v>707</v>
       </c>
       <c r="F114" s="5">
         <v>1</v>
@@ -4325,7 +4325,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="4">
-        <v>1192000</v>
+        <v>11920000</v>
       </c>
       <c r="C115" s="3">
         <v>2020</v>
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="1">
-        <v>404</v>
+        <v>712</v>
       </c>
       <c r="F115" s="5">
         <v>1</v>
@@ -4357,7 +4357,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="4">
-        <v>1206000</v>
+        <v>12060100</v>
       </c>
       <c r="C116" s="3">
         <v>2030</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="1">
-        <v>406</v>
+        <v>717</v>
       </c>
       <c r="F116" s="5">
         <v>1</v>
@@ -4389,7 +4389,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="4">
-        <v>1220000</v>
+        <v>12200200</v>
       </c>
       <c r="C117" s="3">
         <v>2040</v>
@@ -4398,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="1">
-        <v>408</v>
+        <v>722</v>
       </c>
       <c r="F117" s="5">
         <v>1</v>
@@ -4421,7 +4421,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="4">
-        <v>1234000</v>
+        <v>12340300</v>
       </c>
       <c r="C118" s="3">
         <v>2050</v>
@@ -4430,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="1">
-        <v>410</v>
+        <v>727</v>
       </c>
       <c r="F118" s="5">
         <v>1</v>
@@ -4453,7 +4453,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="4">
-        <v>1248000</v>
+        <v>12480400</v>
       </c>
       <c r="C119" s="3">
         <v>2060</v>
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="1">
-        <v>412</v>
+        <v>732</v>
       </c>
       <c r="F119" s="5">
         <v>1</v>
@@ -4485,7 +4485,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="4">
-        <v>1262000</v>
+        <v>12620500</v>
       </c>
       <c r="C120" s="3">
         <v>2070</v>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="1">
-        <v>414</v>
+        <v>737</v>
       </c>
       <c r="F120" s="5">
         <v>1</v>
@@ -4517,7 +4517,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="4">
-        <v>1276000</v>
+        <v>12760600</v>
       </c>
       <c r="C121" s="3">
         <v>2080</v>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="1">
-        <v>416</v>
+        <v>742</v>
       </c>
       <c r="F121" s="5">
         <v>1</v>
@@ -4549,7 +4549,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="4">
-        <v>1290000</v>
+        <v>12900700</v>
       </c>
       <c r="C122" s="3">
         <v>2090</v>
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="1">
-        <v>418</v>
+        <v>747</v>
       </c>
       <c r="F122" s="5">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="4">
-        <v>1304000</v>
+        <v>13040800</v>
       </c>
       <c r="C123" s="3">
         <v>2100</v>
@@ -4590,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="1">
-        <v>420</v>
+        <v>752</v>
       </c>
       <c r="F123" s="5">
         <v>1</v>
@@ -4613,7 +4613,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="4">
-        <v>1318000</v>
+        <v>13180900</v>
       </c>
       <c r="C124" s="3">
         <v>2110</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="1">
-        <v>422</v>
+        <v>757</v>
       </c>
       <c r="F124" s="5">
         <v>1</v>
@@ -4645,7 +4645,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="4">
-        <v>1332000</v>
+        <v>13320000</v>
       </c>
       <c r="C125" s="3">
         <v>2120</v>
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="1">
-        <v>424</v>
+        <v>762</v>
       </c>
       <c r="F125" s="5">
         <v>1</v>
@@ -4677,7 +4677,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="4">
-        <v>1346000</v>
+        <v>13460100</v>
       </c>
       <c r="C126" s="3">
         <v>2130</v>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="1">
-        <v>426</v>
+        <v>767</v>
       </c>
       <c r="F126" s="5">
         <v>1</v>
@@ -4709,7 +4709,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="4">
-        <v>1360000</v>
+        <v>13600200</v>
       </c>
       <c r="C127" s="3">
         <v>2140</v>
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="1">
-        <v>428</v>
+        <v>772</v>
       </c>
       <c r="F127" s="5">
         <v>1</v>
@@ -4741,7 +4741,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="4">
-        <v>1374000</v>
+        <v>13740300</v>
       </c>
       <c r="C128" s="3">
         <v>2150</v>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="1">
-        <v>430</v>
+        <v>777</v>
       </c>
       <c r="F128" s="5">
         <v>1</v>
@@ -4773,7 +4773,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="4">
-        <v>1388000</v>
+        <v>13880400</v>
       </c>
       <c r="C129" s="3">
         <v>2160</v>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="1">
-        <v>432</v>
+        <v>782</v>
       </c>
       <c r="F129" s="5">
         <v>1</v>
@@ -4805,7 +4805,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="4">
-        <v>1402000</v>
+        <v>14020500</v>
       </c>
       <c r="C130" s="3">
         <v>2170</v>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="1">
-        <v>434</v>
+        <v>787</v>
       </c>
       <c r="F130" s="5">
         <v>1</v>
@@ -4837,7 +4837,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="4">
-        <v>1416000</v>
+        <v>14160600</v>
       </c>
       <c r="C131" s="3">
         <v>2180</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="1">
-        <v>436</v>
+        <v>792</v>
       </c>
       <c r="F131" s="5">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="4">
-        <v>1430000</v>
+        <v>14300700</v>
       </c>
       <c r="C132" s="3">
         <v>2190</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="1">
-        <v>438</v>
+        <v>797</v>
       </c>
       <c r="F132" s="5">
         <v>1</v>
@@ -4901,7 +4901,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="4">
-        <v>1444000</v>
+        <v>14440800</v>
       </c>
       <c r="C133" s="3">
         <v>2200</v>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="1">
-        <v>440</v>
+        <v>802</v>
       </c>
       <c r="F133" s="5">
         <v>1</v>
@@ -4933,7 +4933,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="4">
-        <v>1458000</v>
+        <v>14580900</v>
       </c>
       <c r="C134" s="3">
         <v>2210</v>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="1">
-        <v>442</v>
+        <v>807</v>
       </c>
       <c r="F134" s="5">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="4">
-        <v>1472000</v>
+        <v>14720100</v>
       </c>
       <c r="C135" s="3">
         <v>2220</v>
@@ -4974,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="1">
-        <v>444</v>
+        <v>812</v>
       </c>
       <c r="F135" s="5">
         <v>1</v>
@@ -4997,7 +4997,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="4">
-        <v>1486000</v>
+        <v>14860200</v>
       </c>
       <c r="C136" s="3">
         <v>2230</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="1">
-        <v>446</v>
+        <v>817</v>
       </c>
       <c r="F136" s="5">
         <v>1</v>
@@ -5029,7 +5029,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="4">
-        <v>1500000</v>
+        <v>15000300</v>
       </c>
       <c r="C137" s="3">
         <v>2240</v>
@@ -5038,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="1">
-        <v>448</v>
+        <v>822</v>
       </c>
       <c r="F137" s="5">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="4">
-        <v>1514000</v>
+        <v>15140400</v>
       </c>
       <c r="C138" s="3">
         <v>2250</v>
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="1">
-        <v>450</v>
+        <v>827</v>
       </c>
       <c r="F138" s="5">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="4">
-        <v>1528000</v>
+        <v>15280500</v>
       </c>
       <c r="C139" s="3">
         <v>2260</v>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="1">
-        <v>452</v>
+        <v>832</v>
       </c>
       <c r="F139" s="5">
         <v>1</v>
@@ -5125,7 +5125,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="4">
-        <v>1542000</v>
+        <v>15420600</v>
       </c>
       <c r="C140" s="3">
         <v>2270</v>
@@ -5134,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="E140" s="1">
-        <v>454</v>
+        <v>837</v>
       </c>
       <c r="F140" s="5">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="4">
-        <v>1556000</v>
+        <v>15560700</v>
       </c>
       <c r="C141" s="3">
         <v>2280</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="1">
-        <v>456</v>
+        <v>842</v>
       </c>
       <c r="F141" s="5">
         <v>1</v>
@@ -5189,7 +5189,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="4">
-        <v>1570000</v>
+        <v>15700800</v>
       </c>
       <c r="C142" s="3">
         <v>2290</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="1">
-        <v>458</v>
+        <v>847</v>
       </c>
       <c r="F142" s="5">
         <v>1</v>
@@ -5221,7 +5221,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="4">
-        <v>1584000</v>
+        <v>15840900</v>
       </c>
       <c r="C143" s="3">
         <v>2300</v>
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="E143" s="1">
-        <v>460</v>
+        <v>852</v>
       </c>
       <c r="F143" s="5">
         <v>1</v>
@@ -5253,7 +5253,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="4">
-        <v>1598000</v>
+        <v>15980000</v>
       </c>
       <c r="C144" s="3">
         <v>2310</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="1">
-        <v>462</v>
+        <v>857</v>
       </c>
       <c r="F144" s="5">
         <v>1</v>
@@ -5285,7 +5285,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="4">
-        <v>1612000</v>
+        <v>16120100</v>
       </c>
       <c r="C145" s="3">
         <v>2320</v>
@@ -5294,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="E145" s="1">
-        <v>464</v>
+        <v>862</v>
       </c>
       <c r="F145" s="5">
         <v>1</v>
@@ -5317,7 +5317,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="4">
-        <v>1626000</v>
+        <v>16260200</v>
       </c>
       <c r="C146" s="3">
         <v>2330</v>
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="1">
-        <v>466</v>
+        <v>867</v>
       </c>
       <c r="F146" s="5">
         <v>1</v>
@@ -5349,7 +5349,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="4">
-        <v>1640000</v>
+        <v>16400300</v>
       </c>
       <c r="C147" s="3">
         <v>2340</v>
@@ -5358,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="1">
-        <v>468</v>
+        <v>872</v>
       </c>
       <c r="F147" s="5">
         <v>1</v>
@@ -5381,7 +5381,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="4">
-        <v>1654000</v>
+        <v>16540400</v>
       </c>
       <c r="C148" s="3">
         <v>2350</v>
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="1">
-        <v>470</v>
+        <v>877</v>
       </c>
       <c r="F148" s="5">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="4">
-        <v>1668000</v>
+        <v>16680500</v>
       </c>
       <c r="C149" s="3">
         <v>2360</v>
@@ -5422,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="1">
-        <v>472</v>
+        <v>882</v>
       </c>
       <c r="F149" s="5">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="4">
-        <v>1682000</v>
+        <v>16820600</v>
       </c>
       <c r="C150" s="3">
         <v>2370</v>
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="E150" s="1">
-        <v>474</v>
+        <v>887</v>
       </c>
       <c r="F150" s="5">
         <v>1</v>
@@ -5477,7 +5477,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="4">
-        <v>1696000</v>
+        <v>16960700</v>
       </c>
       <c r="C151" s="3">
         <v>2380</v>
@@ -5486,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="1">
-        <v>476</v>
+        <v>892</v>
       </c>
       <c r="F151" s="5">
         <v>1</v>
@@ -5509,7 +5509,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="4">
-        <v>1710000</v>
+        <v>17100800</v>
       </c>
       <c r="C152" s="3">
         <v>2390</v>
@@ -5518,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="E152" s="1">
-        <v>478</v>
+        <v>897</v>
       </c>
       <c r="F152" s="5">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="4">
-        <v>1724000</v>
+        <v>17240900</v>
       </c>
       <c r="C153" s="3">
         <v>2400</v>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="1">
-        <v>480</v>
+        <v>902</v>
       </c>
       <c r="F153" s="5">
         <v>1</v>
@@ -5573,7 +5573,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="4">
-        <v>1738000</v>
+        <v>17380000</v>
       </c>
       <c r="C154" s="3">
         <v>2410</v>
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="1">
-        <v>482</v>
+        <v>907</v>
       </c>
       <c r="F154" s="5">
         <v>1</v>
@@ -5605,7 +5605,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="4">
-        <v>1752000</v>
+        <v>17520100</v>
       </c>
       <c r="C155" s="3">
         <v>2420</v>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="1">
-        <v>484</v>
+        <v>912</v>
       </c>
       <c r="F155" s="5">
         <v>1</v>
@@ -5637,7 +5637,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="4">
-        <v>1766000</v>
+        <v>17660200</v>
       </c>
       <c r="C156" s="3">
         <v>2430</v>
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="1">
-        <v>486</v>
+        <v>917</v>
       </c>
       <c r="F156" s="5">
         <v>1</v>
@@ -5669,7 +5669,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="4">
-        <v>1780000</v>
+        <v>17800300</v>
       </c>
       <c r="C157" s="3">
         <v>2440</v>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="1">
-        <v>488</v>
+        <v>922</v>
       </c>
       <c r="F157" s="5">
         <v>1</v>
@@ -5701,7 +5701,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="4">
-        <v>1794000</v>
+        <v>17940400</v>
       </c>
       <c r="C158" s="3">
         <v>2450</v>
@@ -5710,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="1">
-        <v>490</v>
+        <v>927</v>
       </c>
       <c r="F158" s="5">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="4">
-        <v>1808000</v>
+        <v>18080500</v>
       </c>
       <c r="C159" s="3">
         <v>2460</v>
@@ -5742,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="E159" s="1">
-        <v>492</v>
+        <v>932</v>
       </c>
       <c r="F159" s="5">
         <v>1</v>
@@ -5765,7 +5765,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="4">
-        <v>1822000</v>
+        <v>18220600</v>
       </c>
       <c r="C160" s="3">
         <v>2470</v>
@@ -5774,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="1">
-        <v>494</v>
+        <v>937</v>
       </c>
       <c r="F160" s="5">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="4">
-        <v>1836000</v>
+        <v>18360700</v>
       </c>
       <c r="C161" s="3">
         <v>2480</v>
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="1">
-        <v>496</v>
+        <v>942</v>
       </c>
       <c r="F161" s="5">
         <v>1</v>
@@ -5829,7 +5829,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="4">
-        <v>1850000</v>
+        <v>18500800</v>
       </c>
       <c r="C162" s="3">
         <v>2490</v>
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="E162" s="1">
-        <v>498</v>
+        <v>947</v>
       </c>
       <c r="F162" s="5">
         <v>1</v>
@@ -5861,7 +5861,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="4">
-        <v>1864000</v>
+        <v>18640900</v>
       </c>
       <c r="C163" s="3">
         <v>2500</v>
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="1">
-        <v>500</v>
+        <v>952</v>
       </c>
       <c r="F163" s="5">
         <v>1</v>
@@ -5893,7 +5893,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="4">
-        <v>1878000</v>
+        <v>18780000</v>
       </c>
       <c r="C164" s="3">
         <v>2510</v>
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="1">
-        <v>502</v>
+        <v>957</v>
       </c>
       <c r="F164" s="5">
         <v>1</v>
@@ -5925,7 +5925,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="4">
-        <v>1892000</v>
+        <v>18920100</v>
       </c>
       <c r="C165" s="3">
         <v>2520</v>
@@ -5934,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="1">
-        <v>504</v>
+        <v>962</v>
       </c>
       <c r="F165" s="5">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="4">
-        <v>1906000</v>
+        <v>19060200</v>
       </c>
       <c r="C166" s="3">
         <v>2530</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="1">
-        <v>506</v>
+        <v>967</v>
       </c>
       <c r="F166" s="5">
         <v>1</v>
@@ -5989,7 +5989,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="4">
-        <v>1920000</v>
+        <v>19200300</v>
       </c>
       <c r="C167" s="3">
         <v>2540</v>
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="1">
-        <v>508</v>
+        <v>972</v>
       </c>
       <c r="F167" s="5">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="4">
-        <v>1934000</v>
+        <v>19340400</v>
       </c>
       <c r="C168" s="3">
         <v>2550</v>
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="1">
-        <v>510</v>
+        <v>977</v>
       </c>
       <c r="F168" s="5">
         <v>1</v>
@@ -6053,7 +6053,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="4">
-        <v>1948000</v>
+        <v>19480500</v>
       </c>
       <c r="C169" s="3">
         <v>2560</v>
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="1">
-        <v>512</v>
+        <v>982</v>
       </c>
       <c r="F169" s="5">
         <v>1</v>
@@ -6085,7 +6085,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="4">
-        <v>1962000</v>
+        <v>19620600</v>
       </c>
       <c r="C170" s="3">
         <v>2570</v>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="E170" s="1">
-        <v>514</v>
+        <v>987</v>
       </c>
       <c r="F170" s="5">
         <v>1</v>
@@ -6117,7 +6117,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="4">
-        <v>1976000</v>
+        <v>19760700</v>
       </c>
       <c r="C171" s="3">
         <v>2580</v>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="1">
-        <v>516</v>
+        <v>992</v>
       </c>
       <c r="F171" s="5">
         <v>1</v>
@@ -6149,7 +6149,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="4">
-        <v>1990000</v>
+        <v>19900800</v>
       </c>
       <c r="C172" s="3">
         <v>2590</v>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="E172" s="1">
-        <v>518</v>
+        <v>997</v>
       </c>
       <c r="F172" s="5">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="4">
-        <v>2004000</v>
+        <v>20040900</v>
       </c>
       <c r="C173" s="3">
         <v>2600</v>
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="1">
-        <v>520</v>
+        <v>1002</v>
       </c>
       <c r="F173" s="5">
         <v>1</v>
@@ -6213,7 +6213,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="4">
-        <v>2018000</v>
+        <v>20180000</v>
       </c>
       <c r="C174" s="3">
         <v>2610</v>
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="1">
-        <v>522</v>
+        <v>1007</v>
       </c>
       <c r="F174" s="5">
         <v>1</v>
@@ -6245,7 +6245,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="4">
-        <v>2032000</v>
+        <v>20320100</v>
       </c>
       <c r="C175" s="3">
         <v>2620</v>
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="1">
-        <v>524</v>
+        <v>1012</v>
       </c>
       <c r="F175" s="5">
         <v>1</v>
@@ -6277,7 +6277,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="4">
-        <v>2046000</v>
+        <v>20460200</v>
       </c>
       <c r="C176" s="3">
         <v>2630</v>
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="1">
-        <v>526</v>
+        <v>1017</v>
       </c>
       <c r="F176" s="5">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="4">
-        <v>2060000</v>
+        <v>20600300</v>
       </c>
       <c r="C177" s="3">
         <v>2640</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="E177" s="1">
-        <v>528</v>
+        <v>1022</v>
       </c>
       <c r="F177" s="5">
         <v>1</v>
@@ -6341,7 +6341,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="4">
-        <v>2074000</v>
+        <v>20740400</v>
       </c>
       <c r="C178" s="3">
         <v>2650</v>
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="1">
-        <v>530</v>
+        <v>1027</v>
       </c>
       <c r="F178" s="5">
         <v>1</v>
@@ -6373,7 +6373,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="4">
-        <v>2088000</v>
+        <v>20880500</v>
       </c>
       <c r="C179" s="3">
         <v>2660</v>
@@ -6382,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="E179" s="1">
-        <v>532</v>
+        <v>1032</v>
       </c>
       <c r="F179" s="5">
         <v>1</v>
@@ -6405,7 +6405,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="4">
-        <v>2102000</v>
+        <v>21020600</v>
       </c>
       <c r="C180" s="3">
         <v>2670</v>
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="1">
-        <v>534</v>
+        <v>1037</v>
       </c>
       <c r="F180" s="5">
         <v>1</v>
@@ -6437,7 +6437,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="4">
-        <v>2116000</v>
+        <v>21160700</v>
       </c>
       <c r="C181" s="3">
         <v>2680</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="E181" s="1">
-        <v>536</v>
+        <v>1042</v>
       </c>
       <c r="F181" s="5">
         <v>1</v>
@@ -6469,7 +6469,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="4">
-        <v>2130000</v>
+        <v>21300800</v>
       </c>
       <c r="C182" s="3">
         <v>2690</v>
@@ -6478,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="E182" s="1">
-        <v>538</v>
+        <v>1047</v>
       </c>
       <c r="F182" s="5">
         <v>1</v>
@@ -6501,7 +6501,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="4">
-        <v>2144000</v>
+        <v>21440900</v>
       </c>
       <c r="C183" s="3">
         <v>2700</v>
@@ -6510,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="E183" s="1">
-        <v>540</v>
+        <v>1052</v>
       </c>
       <c r="F183" s="5">
         <v>1</v>
@@ -6533,7 +6533,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="4">
-        <v>2158000</v>
+        <v>21580000</v>
       </c>
       <c r="C184" s="3">
         <v>2710</v>
@@ -6542,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="E184" s="1">
-        <v>542</v>
+        <v>1057</v>
       </c>
       <c r="F184" s="5">
         <v>1</v>
@@ -6565,7 +6565,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="4">
-        <v>2172000</v>
+        <v>21720100</v>
       </c>
       <c r="C185" s="3">
         <v>2720</v>
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="E185" s="1">
-        <v>544</v>
+        <v>1062</v>
       </c>
       <c r="F185" s="5">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="4">
-        <v>2186000</v>
+        <v>21860200</v>
       </c>
       <c r="C186" s="3">
         <v>2730</v>
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="E186" s="1">
-        <v>546</v>
+        <v>1067</v>
       </c>
       <c r="F186" s="5">
         <v>1</v>
@@ -6629,7 +6629,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="4">
-        <v>2200000</v>
+        <v>22000300</v>
       </c>
       <c r="C187" s="3">
         <v>2740</v>
@@ -6638,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="E187" s="1">
-        <v>548</v>
+        <v>1072</v>
       </c>
       <c r="F187" s="5">
         <v>1</v>
@@ -6661,7 +6661,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="4">
-        <v>2214000</v>
+        <v>22140400</v>
       </c>
       <c r="C188" s="3">
         <v>2750</v>
@@ -6670,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="E188" s="1">
-        <v>550</v>
+        <v>1077</v>
       </c>
       <c r="F188" s="5">
         <v>1</v>
@@ -6693,7 +6693,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="4">
-        <v>2228000</v>
+        <v>22280500</v>
       </c>
       <c r="C189" s="3">
         <v>2760</v>
@@ -6702,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="1">
-        <v>552</v>
+        <v>1082</v>
       </c>
       <c r="F189" s="5">
         <v>1</v>
@@ -6725,7 +6725,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="4">
-        <v>2242000</v>
+        <v>22420600</v>
       </c>
       <c r="C190" s="3">
         <v>2770</v>
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="1">
-        <v>554</v>
+        <v>1087</v>
       </c>
       <c r="F190" s="5">
         <v>1</v>
@@ -6757,7 +6757,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="4">
-        <v>2256000</v>
+        <v>22560700</v>
       </c>
       <c r="C191" s="3">
         <v>2780</v>
@@ -6766,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="1">
-        <v>556</v>
+        <v>1092</v>
       </c>
       <c r="F191" s="5">
         <v>1</v>
@@ -6789,7 +6789,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="4">
-        <v>2270000</v>
+        <v>22700800</v>
       </c>
       <c r="C192" s="3">
         <v>2790</v>
@@ -6798,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="1">
-        <v>558</v>
+        <v>1097</v>
       </c>
       <c r="F192" s="5">
         <v>1</v>
@@ -6821,7 +6821,7 @@
         <v>190</v>
       </c>
       <c r="B193" s="4">
-        <v>2284000</v>
+        <v>22840900</v>
       </c>
       <c r="C193" s="3">
         <v>2800</v>
@@ -6830,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="E193" s="1">
-        <v>560</v>
+        <v>1102</v>
       </c>
       <c r="F193" s="5">
         <v>1</v>
@@ -6853,7 +6853,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="4">
-        <v>2298000</v>
+        <v>22980000</v>
       </c>
       <c r="C194" s="3">
         <v>2810</v>
@@ -6862,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="E194" s="1">
-        <v>562</v>
+        <v>1107</v>
       </c>
       <c r="F194" s="5">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="4">
-        <v>2312000</v>
+        <v>23120100</v>
       </c>
       <c r="C195" s="3">
         <v>2820</v>
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="E195" s="1">
-        <v>564</v>
+        <v>1112</v>
       </c>
       <c r="F195" s="5">
         <v>1</v>
@@ -6917,7 +6917,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="4">
-        <v>2326000</v>
+        <v>23260200</v>
       </c>
       <c r="C196" s="3">
         <v>2830</v>
@@ -6926,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="E196" s="1">
-        <v>566</v>
+        <v>1117</v>
       </c>
       <c r="F196" s="5">
         <v>1</v>
@@ -6949,7 +6949,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="4">
-        <v>2340000</v>
+        <v>23400300</v>
       </c>
       <c r="C197" s="3">
         <v>2840</v>
@@ -6958,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="E197" s="1">
-        <v>568</v>
+        <v>1122</v>
       </c>
       <c r="F197" s="5">
         <v>1</v>
@@ -6981,7 +6981,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="4">
-        <v>2354000</v>
+        <v>23540400</v>
       </c>
       <c r="C198" s="3">
         <v>2850</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="E198" s="1">
-        <v>570</v>
+        <v>1127</v>
       </c>
       <c r="F198" s="5">
         <v>1</v>
@@ -7013,7 +7013,7 @@
         <v>196</v>
       </c>
       <c r="B199" s="4">
-        <v>2368000</v>
+        <v>23680500</v>
       </c>
       <c r="C199" s="3">
         <v>2860</v>
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="E199" s="1">
-        <v>572</v>
+        <v>1132</v>
       </c>
       <c r="F199" s="5">
         <v>1</v>
@@ -7045,7 +7045,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="4">
-        <v>2382000</v>
+        <v>23820600</v>
       </c>
       <c r="C200" s="3">
         <v>2870</v>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="E200" s="1">
-        <v>574</v>
+        <v>1137</v>
       </c>
       <c r="F200" s="5">
         <v>1</v>
@@ -7077,7 +7077,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="4">
-        <v>2396000</v>
+        <v>23960700</v>
       </c>
       <c r="C201" s="3">
         <v>2880</v>
@@ -7086,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="E201" s="1">
-        <v>576</v>
+        <v>1142</v>
       </c>
       <c r="F201" s="5">
         <v>1</v>
@@ -7109,7 +7109,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="4">
-        <v>2410000</v>
+        <v>24100800</v>
       </c>
       <c r="C202" s="3">
         <v>2890</v>
@@ -7118,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="E202" s="1">
-        <v>578</v>
+        <v>1147</v>
       </c>
       <c r="F202" s="5">
         <v>1</v>
@@ -7141,7 +7141,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="4">
-        <v>2424000</v>
+        <v>24240900</v>
       </c>
       <c r="C203" s="3">
         <v>2900</v>
@@ -7150,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="E203" s="1">
-        <v>580</v>
+        <v>1152</v>
       </c>
       <c r="F203" s="5">
         <v>1</v>
@@ -7176,12 +7176,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -7189,63 +7214,38 @@
 </settings>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/src/playerLevelUp.xlsx
+++ b/src/playerLevelUp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb-tly266525\Desktop\13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,21 +520,21 @@
   <dimension ref="A1:Z203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="6" customWidth="1"/>
     <col min="3" max="11" width="9" style="5"/>
-    <col min="12" max="12" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="22" width="9" style="5"/>
-    <col min="23" max="23" width="9.625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" style="5" customWidth="1"/>
     <col min="24" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -694,7 +694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -774,7 +774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>63</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>65</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>71</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>72</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>73</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>106</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>107</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>108</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>109</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>110</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>111</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>112</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>113</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>114</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>115</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>116</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>117</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>118</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>119</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>120</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>121</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>122</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>123</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>124</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>125</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>126</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>127</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>128</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>129</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>130</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>131</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>132</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>133</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>134</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>135</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>136</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>137</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>138</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>139</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>140</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>141</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>142</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>143</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>144</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>145</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>146</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>147</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>148</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>149</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>150</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>151</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>152</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>153</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>154</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>155</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>156</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>157</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>158</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>159</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>160</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>161</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>162</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>163</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>164</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>165</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>166</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>167</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>168</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>169</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>170</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>171</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>172</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>173</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>174</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>175</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>176</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>177</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>178</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>179</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>180</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>181</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>182</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>183</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>184</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>185</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>186</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>187</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>188</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>189</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>190</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>191</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>192</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>193</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>194</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>195</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>196</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>197</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>198</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>199</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>200</v>
       </c>
@@ -7176,14 +7176,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7194,16 +7196,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7215,13 +7215,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -7233,13 +7233,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/playerLevelUp.xlsx
+++ b/src/playerLevelUp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2F8B26-F023-4090-AA7A-5283BD6717FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740"/>
+    <workbookView minimized="1" xWindow="4245" yWindow="4395" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -154,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -516,25 +517,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="6" customWidth="1"/>
     <col min="3" max="11" width="9" style="5"/>
-    <col min="12" max="12" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="22" width="9" style="5"/>
-    <col min="23" max="23" width="9.6640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="9.625" style="5" customWidth="1"/>
     <col min="24" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -614,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -694,7 +695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -774,7 +775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -800,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -832,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -864,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -896,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -928,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -960,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -992,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>63</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>65</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>71</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>72</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>73</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>85</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>87</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>97</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -3936,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>101</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -4032,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>106</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>107</v>
       </c>
@@ -4192,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>108</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>109</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>110</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>111</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>112</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>113</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>114</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>115</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>116</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>117</v>
       </c>
@@ -4512,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>118</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>119</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>120</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>121</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>122</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>123</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>124</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>125</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>126</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>127</v>
       </c>
@@ -4832,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>128</v>
       </c>
@@ -4864,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>129</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>130</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>131</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>132</v>
       </c>
@@ -4992,7 +4993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>133</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>134</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>135</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>136</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>137</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>138</v>
       </c>
@@ -5184,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>139</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>140</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>141</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>142</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>143</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>144</v>
       </c>
@@ -5376,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>145</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>146</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>147</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>148</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>149</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>150</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>151</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>152</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>153</v>
       </c>
@@ -5664,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>154</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>155</v>
       </c>
@@ -5728,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>156</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>157</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>158</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>159</v>
       </c>
@@ -5856,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>160</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>161</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>162</v>
       </c>
@@ -5952,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>163</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>164</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>165</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>166</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>167</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>168</v>
       </c>
@@ -6144,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>169</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>170</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>171</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>172</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>173</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>174</v>
       </c>
@@ -6336,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>175</v>
       </c>
@@ -6368,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>176</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>177</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>178</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>179</v>
       </c>
@@ -6496,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>180</v>
       </c>
@@ -6528,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>181</v>
       </c>
@@ -6560,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>182</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>183</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>184</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>185</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>186</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>187</v>
       </c>
@@ -6752,7 +6753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>188</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>189</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>190</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>191</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>192</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>193</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>194</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>195</v>
       </c>
@@ -7008,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>196</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>197</v>
       </c>
@@ -7072,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>198</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>199</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>200</v>
       </c>
@@ -7176,37 +7177,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -7214,38 +7197,56 @@
 </settings>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/src/playerLevelUp.xlsx
+++ b/src/playerLevelUp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2F8B26-F023-4090-AA7A-5283BD6717FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727AF16-61BC-401F-8EAA-8A81628B53D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4245" yWindow="4395" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:Z203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -795,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H26" s="5">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H27" s="5">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H29" s="5">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H32" s="5">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H48" s="5">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H49" s="5">
         <v>1</v>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H50" s="5">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H51" s="5">
         <v>1</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="5">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H52" s="5">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H54" s="5">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H55" s="5">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H56" s="5">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H57" s="5">
         <v>1</v>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H58" s="5">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H59" s="5">
         <v>1</v>
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H60" s="5">
         <v>1</v>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H61" s="5">
         <v>1</v>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H62" s="5">
         <v>1</v>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="5">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H63" s="5">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H64" s="5">
         <v>1</v>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H65" s="5">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H66" s="5">
         <v>1</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H67" s="5">
         <v>1</v>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H70" s="5">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H71" s="5">
         <v>1</v>
@@ -2965,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H72" s="5">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H73" s="5">
         <v>1</v>
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H74" s="5">
         <v>1</v>
@@ -3061,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H75" s="5">
         <v>1</v>
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H76" s="5">
         <v>1</v>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H77" s="5">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H78" s="5">
         <v>1</v>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H79" s="5">
         <v>1</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H80" s="5">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H81" s="5">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H82" s="5">
         <v>1</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="5">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H83" s="5">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H84" s="5">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H86" s="5">
         <v>1</v>
@@ -3445,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H87" s="5">
         <v>1</v>
@@ -3477,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H88" s="5">
         <v>1</v>
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H89" s="5">
         <v>1</v>
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H90" s="5">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H91" s="5">
         <v>1</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H92" s="5">
         <v>1</v>
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H93" s="5">
         <v>1</v>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H94" s="5">
         <v>1</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H95" s="5">
         <v>1</v>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H96" s="5">
         <v>1</v>
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H98" s="5">
         <v>1</v>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H99" s="5">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H100" s="5">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H101" s="5">
         <v>1</v>
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H102" s="5">
         <v>1</v>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H103" s="5">
         <v>1</v>
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H104" s="5">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H105" s="5">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H106" s="5">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H107" s="5">
         <v>1</v>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H108" s="5">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H109" s="5">
         <v>1</v>
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H110" s="5">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H111" s="5">
         <v>1</v>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H112" s="5">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="5">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H113" s="5">
         <v>1</v>
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H114" s="5">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H115" s="5">
         <v>1</v>
@@ -4373,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H116" s="5">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H117" s="5">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H118" s="5">
         <v>1</v>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H120" s="5">
         <v>1</v>
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H121" s="5">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H122" s="5">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="5">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -4693,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H128" s="5">
         <v>1</v>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H129" s="5">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H130" s="5">
         <v>1</v>
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H131" s="5">
         <v>1</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="5">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H132" s="5">
         <v>1</v>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H133" s="5">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H134" s="5">
         <v>1</v>
@@ -4981,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H135" s="5">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H136" s="5">
         <v>1</v>
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H137" s="5">
         <v>1</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H138" s="5">
         <v>1</v>
@@ -5109,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H139" s="5">
         <v>1</v>
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H140" s="5">
         <v>1</v>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H141" s="5">
         <v>1</v>
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H142" s="5">
         <v>1</v>
@@ -5237,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H143" s="5">
         <v>1</v>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H144" s="5">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H145" s="5">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H146" s="5">
         <v>1</v>
@@ -5365,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H147" s="5">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H148" s="5">
         <v>1</v>
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H149" s="5">
         <v>1</v>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H150" s="5">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H151" s="5">
         <v>1</v>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H152" s="5">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H154" s="5">
         <v>1</v>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H155" s="5">
         <v>1</v>
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H156" s="5">
         <v>1</v>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H157" s="5">
         <v>1</v>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="G158" s="5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H158" s="5">
         <v>1</v>
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="G159" s="5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H159" s="5">
         <v>1</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H160" s="5">
         <v>1</v>
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="G161" s="5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H161" s="5">
         <v>1</v>
@@ -5845,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="G162" s="5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H162" s="5">
         <v>1</v>
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="5">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H164" s="5">
         <v>1</v>
@@ -5941,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="5">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H165" s="5">
         <v>1</v>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="5">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H166" s="5">
         <v>1</v>
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="G167" s="5">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H167" s="5">
         <v>1</v>
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="5">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H168" s="5">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="5">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H169" s="5">
         <v>1</v>
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="5">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H170" s="5">
         <v>1</v>
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="5">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H171" s="5">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="G172" s="5">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H172" s="5">
         <v>1</v>
@@ -6229,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="G174" s="5">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H174" s="5">
         <v>1</v>
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="5">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H175" s="5">
         <v>1</v>
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="5">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H176" s="5">
         <v>1</v>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="5">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H177" s="5">
         <v>1</v>
@@ -6357,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="5">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H178" s="5">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="5">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H179" s="5">
         <v>1</v>
@@ -6421,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="5">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H180" s="5">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="5">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H181" s="5">
         <v>1</v>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="5">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H182" s="5">
         <v>1</v>
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="5">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H184" s="5">
         <v>1</v>
@@ -6581,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="5">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H185" s="5">
         <v>1</v>
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="5">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H186" s="5">
         <v>1</v>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="5">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H187" s="5">
         <v>1</v>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="5">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H188" s="5">
         <v>1</v>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="5">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H189" s="5">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="G190" s="5">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H190" s="5">
         <v>1</v>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="G191" s="5">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H191" s="5">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="5">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H192" s="5">
         <v>1</v>
@@ -6869,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H194" s="5">
         <v>1</v>
@@ -6901,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H195" s="5">
         <v>1</v>
@@ -6933,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="G196" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H196" s="5">
         <v>1</v>
@@ -6965,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H197" s="5">
         <v>1</v>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H198" s="5">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H199" s="5">
         <v>1</v>
@@ -7061,7 +7061,7 @@
         <v>1</v>
       </c>
       <c r="G200" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H200" s="5">
         <v>1</v>
@@ -7093,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="G201" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H201" s="5">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="G202" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H202" s="5">
         <v>1</v>
@@ -7177,19 +7177,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -7197,56 +7188,65 @@
 </settings>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>